--- a/ShutterSpeeds (version 1).xlsb.xlsx
+++ b/ShutterSpeeds (version 1).xlsb.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studunifrankfurtde-my.sharepoint.com/personal/s5997494_stud_uni-frankfurt_de/Documents/Fotografie/OpenSX-70/Oktober/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Uni Frankfurt\OneDrive - stud.uni-frankfurt.de\Fotografie\OpenSX-70\Oktober\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{94177CF9-B5A9-45DA-9C08-ABB210FBC242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5AE75443-8B25-4240-9A8F-83F31F952CA8}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="8_{94177CF9-B5A9-45DA-9C08-ABB210FBC242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{183F8A19-0DC4-4417-8E06-E7B3044EFFA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{8179858F-0FCB-4BE4-82F9-54BAD174FD57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{8179858F-0FCB-4BE4-82F9-54BAD174FD57}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS3200-AlphaModel2" sheetId="1" r:id="rId1"/>
-    <sheet name="TSL327T-Alpha" sheetId="2" r:id="rId2"/>
+    <sheet name="TCS3200 Deault" sheetId="3" r:id="rId2"/>
+    <sheet name="Alpha-Edwin_TSL327" sheetId="4" r:id="rId3"/>
+    <sheet name="TSL327T-Alpha" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
   <si>
     <t>Edwin</t>
   </si>
@@ -92,12 +93,92 @@
   </si>
   <si>
     <t>"1/1"</t>
+  </si>
+  <si>
+    <t>1/3 ST2</t>
+  </si>
+  <si>
+    <t>56+-7ms</t>
+  </si>
+  <si>
+    <t>0,3*ST2</t>
+  </si>
+  <si>
+    <t>Shutterconstant</t>
+  </si>
+  <si>
+    <t>SV+Shutterconst</t>
+  </si>
+  <si>
+    <t>rounded Modified SV</t>
+  </si>
+  <si>
+    <t>Default Shutterspeed</t>
+  </si>
+  <si>
+    <t>Shuttervalve Speeds</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>ExpTime</t>
+  </si>
+  <si>
+    <t>F-Stop</t>
+  </si>
+  <si>
+    <t>ExpTime ms</t>
+  </si>
+  <si>
+    <t>Exp Diffrence</t>
+  </si>
+  <si>
+    <t>16, 20, 23, 25, 30, 35, 45, 55, 166, 302, 600, 1100</t>
+  </si>
+  <si>
+    <t>1/ExpTime</t>
+  </si>
+  <si>
+    <t>desired EV</t>
+  </si>
+  <si>
+    <t>derived ExpTime</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>SX70 F-Stops</t>
+  </si>
+  <si>
+    <t>Meassured Speeds</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>EV = ld ( F-Stop^2 / ExpTime)</t>
+  </si>
+  <si>
+    <t>ExpTime rounded ms</t>
+  </si>
+  <si>
+    <t>Raw ExpTime rounded ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,11 +209,76 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -141,13 +287,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -462,18 +632,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6512B97-FAD2-4678-B2F2-D5662BC4FA52}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +661,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -499,231 +673,750 @@
       </c>
       <c r="E2">
         <f>C3/C2</f>
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="D3" s="1">
         <f>D2*E2</f>
-        <v>109.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="P3">
+        <f>1/N5</f>
+        <v>5.2726530313260751E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>16</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <f>D5*$E$2</f>
-        <v>11.68</v>
-      </c>
-      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
         <f>E5</f>
-        <v>11.68</v>
-      </c>
-      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7">
+        <f>F5+$H$2</f>
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <f>1/I5</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <f>J5*1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="3">
+        <f>G5-K5</f>
+        <v>24.5</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1">
+        <f>LOG(((M5^2)/J5),2)</f>
+        <v>18.965784284662089</v>
+      </c>
+      <c r="P5">
+        <f>$P$3*N5</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <f>K5/G5</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E16" si="0">D6*$E$2</f>
+        <v>19</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F16" si="1">E6</f>
+        <v>19</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" ref="G6:G16" si="2">F6+$H$2</f>
+        <v>28</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J16" si="3">1/I6</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:K16" si="4">J6*1000</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" ref="L6:L16" si="5">G6-K6</f>
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1">
+        <f>LOG(((M6^2)/J6),2)</f>
+        <v>17.366663720944274</v>
+      </c>
+      <c r="P6">
+        <f>$P$3*N6</f>
+        <v>0.91568392112257402</v>
+      </c>
+      <c r="R6" s="12">
+        <f>K6/G6</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1">
+        <f>LOG(((M7^2)/J7),2)</f>
+        <v>16.135709286104401</v>
+      </c>
+      <c r="P7">
+        <f>$P$3*N7</f>
+        <v>0.85077996479974671</v>
+      </c>
+      <c r="R7" s="12">
+        <f>K7/G7</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>250</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1">
+        <f>LOG(((M8^2)/J8),2)</f>
+        <v>14.884647521936682</v>
+      </c>
+      <c r="P8">
+        <f>$P$3*N8</f>
+        <v>0.78481581876759599</v>
+      </c>
+      <c r="R8" s="12">
+        <f>K8/G8</f>
+        <v>0.11428571428571428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>125</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <f>LOG(((M9^2)/J9),2)</f>
+        <v>13.609640474436812</v>
+      </c>
+      <c r="P9">
+        <f>$P$3*N9</f>
+        <v>0.71758912102797301</v>
+      </c>
+      <c r="R9" s="12">
+        <f>K9/G9</f>
+        <v>0.20512820512820512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="4"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="5"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1">
+        <f>LOG(((M10^2)/J10),2)</f>
+        <v>12.246740598493144</v>
+      </c>
+      <c r="P10">
+        <f>$P$3*N10</f>
+        <v>0.64572813940508988</v>
+      </c>
+      <c r="R10" s="12">
+        <f>K10/G10</f>
+        <v>0.37878787878787884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="5"/>
+        <v>20.666666666666664</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1">
+        <f>LOG(((M11^2)/J11),2)</f>
+        <v>10.90689059560852</v>
+      </c>
+      <c r="P11">
+        <f>$P$3*N11</f>
+        <v>0.57508249761277119</v>
+      </c>
+      <c r="R11">
+        <f>K11/G11</f>
+        <v>0.61728395061728403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.6666666666666714</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12" s="1">
+        <f>LOG(((M12^2)/J12),2)</f>
+        <v>9.9068905956085196</v>
+      </c>
+      <c r="P12">
+        <f>$P$3*N12</f>
+        <v>0.5223559672995105</v>
+      </c>
+      <c r="R12">
+        <f>K12/G12</f>
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10">
+        <v>166</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13" s="1">
+        <f>LOG(((M13^2)/J13),2)</f>
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <f>$P$3*N13</f>
+        <v>0.47453877281934675</v>
+      </c>
+      <c r="R13">
+        <f>K13/G13</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10">
+        <v>302</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14" s="1">
+        <f>LOG(((M14^2)/J14),2)</f>
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <f>$P$3*N14</f>
+        <v>0.42181224250608601</v>
+      </c>
+      <c r="R14">
+        <f>K14/G14</f>
+        <v>0.8038585209003215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10">
+        <v>600</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>609</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15" s="1">
+        <f>LOG(((M15^2)/J15),2)</f>
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <f>$P$3*N15</f>
+        <v>0.36908571219282527</v>
+      </c>
+      <c r="R15">
+        <f>K15/G15</f>
+        <v>0.82101806239737274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1100</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>1109</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16" s="1">
+        <f>LOG(((M16^2)/J16),2)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
+      <c r="P16">
+        <f>$P$3*N16</f>
+        <v>0.31635918187956452</v>
+      </c>
+      <c r="R16">
+        <f>K16/G16</f>
+        <v>0.90171325518485124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" ref="E6:E16" si="0">D6*$E$2</f>
-        <v>13.87</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F16" si="1">E6</f>
-        <v>13.87</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>16.79</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>16.79</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>18.98</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>18.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>21.9</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>25.55</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>25.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>32.85</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>32.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>40.15</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>40.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>166</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>121.17999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>121.17999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>302</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>220.46</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>220.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>600</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>438</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>1100</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>803</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>803</v>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <f>B22*0.33</f>
+        <v>24.75</v>
+      </c>
+      <c r="D22">
+        <f>C22*1.3</f>
+        <v>32.175000000000004</v>
+      </c>
+      <c r="E22">
+        <f>C22+D22</f>
+        <v>56.925000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>56*1.3</f>
+        <v>72.8</v>
+      </c>
+      <c r="E23">
+        <f>E22/B22</f>
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +1425,1341 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D28D8C7-2D72-4878-89D7-B6CFC4BF87E8}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18">
+        <v>400</v>
+      </c>
+      <c r="D2" s="18">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <f>C3/C2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="18">
+        <v>400</v>
+      </c>
+      <c r="D3" s="19">
+        <f>D2*E2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <f>B6*$E$2</f>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="7">
+        <f>D6+$H$2</f>
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="11">
+        <f>1/G6</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I6" s="3">
+        <f>H6*1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="3">
+        <f>E6-I6</f>
+        <v>24.5</v>
+      </c>
+      <c r="K6" s="12">
+        <v>57.3</v>
+      </c>
+      <c r="L6" s="1">
+        <f>LOG(((K6^2)/N6),2)</f>
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6" s="24">
+        <f>2^-M6*K6^2</f>
+        <v>2.5049514770507809E-2</v>
+      </c>
+      <c r="O6" s="17">
+        <f>N6*1000</f>
+        <v>25.049514770507809</v>
+      </c>
+      <c r="P6" s="1">
+        <f>O6</f>
+        <v>25.049514770507809</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>P6-$H$2</f>
+        <v>16.049514770507809</v>
+      </c>
+      <c r="R6">
+        <f>E6/I6</f>
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ref="C7:C17" si="0">B7*$E$2</f>
+        <v>20</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D17" si="1">C7</f>
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:E17" si="2">D7+$H$2</f>
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" ref="H7:H17" si="3">1/G7</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I17" si="4">H7*1000</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" ref="J7:J17" si="5">E7-I7</f>
+        <v>28</v>
+      </c>
+      <c r="K7" s="12">
+        <v>43.8</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L17" si="6">LOG(((K7^2)/N7),2)</f>
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" ref="N7:N17" si="7">2^-M7*K7^2</f>
+        <v>2.9273071289062497E-2</v>
+      </c>
+      <c r="O7" s="17">
+        <f t="shared" ref="O7:O17" si="8">N7*1000</f>
+        <v>29.273071289062496</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" ref="P7:P17" si="9">O7</f>
+        <v>29.273071289062496</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q17" si="10">P7-$H$2</f>
+        <v>20.273071289062496</v>
+      </c>
+      <c r="R7">
+        <f>E7/I7</f>
+        <v>29</v>
+      </c>
+      <c r="S7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K8" s="12">
+        <v>32.4</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" si="7"/>
+        <v>3.20361328125E-2</v>
+      </c>
+      <c r="O8" s="17">
+        <f t="shared" si="8"/>
+        <v>32.0361328125</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="9"/>
+        <v>32.0361328125</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="10"/>
+        <v>23.0361328125</v>
+      </c>
+      <c r="R8">
+        <f>E8/I8</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>250</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K9" s="12">
+        <v>23.6</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9" s="24">
+        <f t="shared" si="7"/>
+        <v>3.3994140625000002E-2</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" si="8"/>
+        <v>33.994140625</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="9"/>
+        <v>33.994140625</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="10"/>
+        <v>24.994140625</v>
+      </c>
+      <c r="R9">
+        <f>E9/I9</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>125</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="K10" s="12">
+        <v>17.64</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" si="7"/>
+        <v>3.79845703125E-2</v>
+      </c>
+      <c r="O10" s="17">
+        <f t="shared" si="8"/>
+        <v>37.984570312499997</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="9"/>
+        <v>37.984570312499997</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="10"/>
+        <v>28.984570312499997</v>
+      </c>
+      <c r="R10">
+        <f>E10/I10</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="4"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="5"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="K11" s="12">
+        <v>13.42</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3968847656249997E-2</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" si="8"/>
+        <v>43.968847656249999</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="9"/>
+        <v>43.968847656249999</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="10"/>
+        <v>34.968847656249999</v>
+      </c>
+      <c r="R11">
+        <f>E11/I11</f>
+        <v>2.6399999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="5"/>
+        <v>20.666666666666664</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="7"/>
+        <v>5.38330078125E-2</v>
+      </c>
+      <c r="O12" s="17">
+        <f t="shared" si="8"/>
+        <v>53.8330078125</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="9"/>
+        <v>53.8330078125</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="10"/>
+        <v>44.8330078125</v>
+      </c>
+      <c r="R12">
+        <f>E12/I12</f>
+        <v>1.6199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7">
+        <f>(B13*$E$2)+23</f>
+        <v>78</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="5"/>
+        <v>20.333333333333329</v>
+      </c>
+      <c r="K13" s="12">
+        <v>9.44</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="7"/>
+        <v>8.7024999999999991E-2</v>
+      </c>
+      <c r="O13" s="17">
+        <f t="shared" si="8"/>
+        <v>87.024999999999991</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="9"/>
+        <v>87.024999999999991</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="10"/>
+        <v>78.024999999999991</v>
+      </c>
+      <c r="R13">
+        <f>E13/I13</f>
+        <v>1.3049999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10">
+        <v>166</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K14" s="12">
+        <v>9.4670000000000005</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="7"/>
+        <v>0.17504704882812502</v>
+      </c>
+      <c r="O14" s="17">
+        <f t="shared" si="8"/>
+        <v>175.04704882812501</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="9"/>
+        <v>175.04704882812501</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="10"/>
+        <v>166.04704882812501</v>
+      </c>
+      <c r="R14">
+        <f>E14/I14</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10">
+        <v>302</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="K15" s="12">
+        <v>8.9239999999999995</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="7"/>
+        <v>0.31108506249999995</v>
+      </c>
+      <c r="O15" s="17">
+        <f t="shared" si="8"/>
+        <v>311.08506249999994</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="9"/>
+        <v>311.08506249999994</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="10"/>
+        <v>302.08506249999994</v>
+      </c>
+      <c r="R15">
+        <f>E15/I15</f>
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10">
+        <v>600</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="2"/>
+        <v>609</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="K16" s="12">
+        <v>8.83</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="7"/>
+        <v>0.60913203125000004</v>
+      </c>
+      <c r="O16" s="17">
+        <f t="shared" si="8"/>
+        <v>609.13203125000007</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="9"/>
+        <v>609.13203125000007</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="10"/>
+        <v>600.13203125000007</v>
+      </c>
+      <c r="R16">
+        <f>E16/I16</f>
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1100</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="2"/>
+        <v>1109</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="K17" s="12">
+        <v>8.4250000000000007</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="7"/>
+        <v>1.1090722656250003</v>
+      </c>
+      <c r="O17" s="17">
+        <f t="shared" si="8"/>
+        <v>1109.0722656250002</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="9"/>
+        <v>1109.0722656250002</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="10"/>
+        <v>1100.0722656250002</v>
+      </c>
+      <c r="R17">
+        <f>E17/I17</f>
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9DD51A-1A45-4D0D-AB97-C59113CA7CB4}">
+  <dimension ref="A1:AM15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7">
+        <f>B4+$B$2</f>
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>49</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <v>37</v>
+      </c>
+      <c r="Q4">
+        <v>56</v>
+      </c>
+      <c r="R4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <f>B5+$B$2</f>
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>52</v>
+      </c>
+      <c r="O5">
+        <v>38</v>
+      </c>
+      <c r="Q5">
+        <v>57</v>
+      </c>
+      <c r="R5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
+        <f>B6+$B$2</f>
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>35</v>
+      </c>
+      <c r="N6">
+        <v>52</v>
+      </c>
+      <c r="O6">
+        <v>38</v>
+      </c>
+      <c r="Q6">
+        <v>56</v>
+      </c>
+      <c r="R6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7">
+        <f>B7+$B$2</f>
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>49</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7">
+        <f>B8+$B$2</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7">
+        <f>B9+$B$2</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7">
+        <f>B10+$B$2</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7">
+        <f>B11+$B$2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10">
+        <v>166</v>
+      </c>
+      <c r="C12" s="7">
+        <f>B12+$B$2</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10">
+        <v>302</v>
+      </c>
+      <c r="C13" s="7">
+        <f>B13+$B$2</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10">
+        <v>600</v>
+      </c>
+      <c r="C14" s="7">
+        <f>B14+$B$2</f>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1100</v>
+      </c>
+      <c r="C15" s="7">
+        <f>B15+$B$2</f>
+        <v>1109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5247DA87-7C98-479F-911C-2F3117FE0B00}">
   <dimension ref="A1:G16"/>
   <sheetViews>
